--- a/tests/expected_data/ТЗ_7QB1_ЭКСПЛУАТАЦИЯ_Кабельно-проводниковая продукция.xlsx
+++ b/tests/expected_data/ТЗ_7QB1_ЭКСПЛУАТАЦИЯ_Кабельно-проводниковая продукция.xlsx
@@ -183,7 +183,7 @@
 Дзержинские тепловые сети, Нижегородская обл., г. Дзержинск, ул. Октябрьская, д. 84</t>
   </si>
   <si>
-    <t>Технический директор-главный инженер Дзержинских тепловых сетей ___________________________ / /</t>
+    <t>Технический директор - главный инженер Дзержинских тепловых сетей ___________________________ / /</t>
   </si>
 </sst>
 </file>
